--- a/_pages/stsm.xlsx
+++ b/_pages/stsm.xlsx
@@ -189,6 +189,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -210,6 +211,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -266,7 +268,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -288,6 +290,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -371,10 +377,10 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -430,346 +436,346 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="6" t="n">
         <v>130</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="6" t="n">
         <v>175</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="6" t="n">
         <v>206</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="6" t="n">
         <v>169</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="6" t="n">
         <v>145</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="6" t="n">
         <v>142</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="6" t="n">
         <v>190</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="6" t="n">
         <v>180</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="6" t="n">
         <v>222</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="6" t="n">
         <v>129</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="6" t="n">
         <v>220</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="6" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="6" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="6" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="6" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="6" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="6" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="6" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="6" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="6" t="n">
         <v>145</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="0" t="n">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="6" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="6" t="n">
         <v>105</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="0" t="n">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="6" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="6" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="6" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="6" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="6" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="6" t="n">
         <v>175</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="0" t="n">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="6" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="6" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="6" t="n">
         <v>150</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="0" t="n">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="6" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="6" t="n">
         <v>160</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>160</v>
-      </c>
-    </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="6" t="n">
         <v>132</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="6" t="n">
         <v>196</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="6" t="n">
         <v>235</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="6" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="6" t="n">
         <v>208</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="6" t="n">
         <v>204</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="6" t="n">
         <v>230</v>
       </c>
     </row>
